--- a/User_Study/user_study.xlsx
+++ b/User_Study/user_study.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyanming/Documents/paper6/IdioMine/ChatGPT_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyanming/Desktop/tempIdioMine/idioMine/User_Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A8912D-D6DC-C343-A4E9-FB331FE71493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C47FC-ACEA-DA4C-9863-719AE63DA9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1740" windowWidth="27020" windowHeight="15940" activeTab="1" xr2:uid="{CC5F4764-0F76-4347-B715-B9133C03AA5E}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="29220" windowHeight="18880" activeTab="1" xr2:uid="{CC5F4764-0F76-4347-B715-B9133C03AA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Top_idioms" sheetId="1" r:id="rId1"/>
     <sheet name="User_study" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1598,50 +1598,6 @@
     <t>(token=$(XContentParser).nextToken())!= XContentParser.Token.END_OBJECT</t>
   </si>
   <si>
-    <t>Researcher 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Researcher 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Code idiom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1831,6 +1787,50 @@
       </rPr>
       <t xml:space="preserve"> value = versioned.getValue();\n</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B44ECA-9177-2842-9C3E-A2847E9C0E0D}">
   <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AJ23" sqref="AJ23"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2545,163 +2545,163 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="X2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Z2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AB2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AC2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AD2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AE2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AH2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -3539,7 +3539,7 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="30" spans="1:34" ht="17">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="50" spans="1:34" ht="17">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="58" spans="1:34" ht="17">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="60" spans="1:34" ht="20">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="61" spans="1:34" ht="17">
       <c r="A61" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="62" spans="1:34" ht="20">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -8815,17 +8815,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
